--- a/notice.xlsx
+++ b/notice.xlsx
@@ -4,8 +4,10 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="NOTICE" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="WRITER_CREATE_DATE" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="W_C_ID" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="FILE_NAME" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="FILE_NAME_LIST" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="WRITER" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="WRITER_LIST" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,45 +15,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
   <si>
     <t>N_UNIQUE_ID</t>
   </si>
   <si>
-    <t>No.</t>
+    <t>NOTOCE_YN(공지여부)</t>
   </si>
   <si>
     <t>Title(제목)</t>
   </si>
   <si>
+    <t>CREATED_DATE(작성일)</t>
+  </si>
+  <si>
     <t>views(조회수)</t>
   </si>
   <si>
-    <t>FILE</t>
+    <t>Content(내용)</t>
   </si>
   <si>
     <t>N1</t>
   </si>
   <si>
-    <t>공지</t>
+    <t>Y</t>
   </si>
   <si>
     <t>[공공데이터포털] 데이터 개선요청, 데이터 제공신청 버튼 추가</t>
   </si>
   <si>
+    <t>"데이터 개선요청" 과 "데이터 제공신청" 버튼을 추가</t>
+  </si>
+  <si>
     <t>N2</t>
   </si>
   <si>
     <t>2022년 오픈스퀘어-D 공공데이터 활용 컨설팅 신청안내</t>
   </si>
   <si>
+    <t>컨설팅 신청안내</t>
+  </si>
+  <si>
     <t>N3</t>
   </si>
   <si>
     <t>「공공기관의 데이터베이스 표준화 지침」개정 고시 안내</t>
   </si>
   <si>
-    <t>있음</t>
+    <t>개정 고시 안내</t>
   </si>
   <si>
     <t>N4</t>
@@ -60,70 +71,88 @@
     <t>공공데이터 인지도 설문조사 이벤트 당첨자 발표</t>
   </si>
   <si>
+    <t>이벤트 당첨자 발표</t>
+  </si>
+  <si>
     <t>N5</t>
   </si>
   <si>
     <t>[한국산업인력공단] 2022년 공공데이터 대국민 설문조사</t>
   </si>
   <si>
+    <t>대국민 설문조사</t>
+  </si>
+  <si>
     <t>N6</t>
   </si>
   <si>
     <t xml:space="preserve">[인천광역시] 일부 오픈API 서비스 데이터_LINK 유형_25종 폐기 및 대체 서비스 안내 </t>
   </si>
   <si>
+    <t>오픈API 목록_25종 폐기 및 대체 서비스 안내</t>
+  </si>
+  <si>
     <t>N7</t>
   </si>
   <si>
     <t>[산림청] Open API 폐기 안내</t>
   </si>
   <si>
+    <t>OpenAPI가 폐기함을 안내</t>
+  </si>
+  <si>
     <t>N8</t>
   </si>
   <si>
     <t>[식품의약품안전처] Open API 서비스 25종 변경 안내</t>
   </si>
   <si>
+    <t>API 변경안내</t>
+  </si>
+  <si>
     <t>N9</t>
   </si>
   <si>
     <t>[한국관광공사] Open API 서비스 일시 중지 안내</t>
   </si>
   <si>
+    <t>API 서비스 일시 중지 안내</t>
+  </si>
+  <si>
     <t>N10</t>
   </si>
   <si>
     <t>[산림청] 백두대간 등산로정보 API 서비스 외 6종 변경 안내</t>
   </si>
   <si>
-    <t>Writer(작성자)</t>
-  </si>
-  <si>
-    <t>C_UNIQUE_ID</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>C6</t>
+    <t>FILE_NAME_UNIQUE_ID</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>FILE_NAME</t>
+  </si>
+  <si>
+    <t>개정알림.pdf</t>
+  </si>
+  <si>
+    <t>표준화 지침 개정 전문.hwp</t>
   </si>
   <si>
     <t>W_UNIQUE_ID</t>
   </si>
   <si>
-    <t>CREATED_DATE(작성일)</t>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>WRITER</t>
   </si>
   <si>
     <t>관리자</t>
@@ -136,7 +165,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -149,22 +178,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color rgb="FF333333"/>
       <name val="&quot;Malgun Gothic&quot;"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF666666"/>
-      <name val="&quot;Malgun Gothic&quot;"/>
+      <sz val="10.0"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -178,30 +224,42 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -220,6 +278,14 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -427,8 +493,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="17.0"/>
-    <col customWidth="1" min="3" max="3" width="59.75"/>
+    <col customWidth="1" min="2" max="2" width="20.63"/>
+    <col customWidth="1" min="3" max="3" width="70.75"/>
+    <col customWidth="1" min="4" max="4" width="24.13"/>
+    <col customWidth="1" min="6" max="6" width="19.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -441,157 +509,200 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3">
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4">
+        <v>44833.0</v>
+      </c>
+      <c r="E2" s="5">
         <v>50.0</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="7">
+        <v>44761.0</v>
+      </c>
+      <c r="E3" s="8">
         <v>1488.0</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D4" s="4">
+        <v>44354.0</v>
+      </c>
+      <c r="E4" s="8">
         <v>3568.0</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>12</v>
+      <c r="F4" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3">
-        <v>2804.0</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4">
+        <v>44841.0</v>
+      </c>
+      <c r="E5" s="5">
         <v>99.0</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="3">
-        <v>2801.0</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3">
+        <v>19</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4">
+        <v>44840.0</v>
+      </c>
+      <c r="E6" s="5">
         <v>78.0</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="3">
-        <v>2800.0</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="3">
+        <v>22</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4">
+        <v>44840.0</v>
+      </c>
+      <c r="E7" s="5">
         <v>32.0</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>12</v>
+      <c r="F7" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="3">
-        <v>2799.0</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="3">
+        <v>25</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="7">
+        <v>44839.0</v>
+      </c>
+      <c r="E8" s="5">
         <v>58.0</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="3">
-        <v>2798.0</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="3">
+        <v>28</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4">
+        <v>44839.0</v>
+      </c>
+      <c r="E9" s="5">
         <v>33.0</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="3">
-        <v>2797.0</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="3">
+        <v>31</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="4">
+        <v>44839.0</v>
+      </c>
+      <c r="E10" s="5">
         <v>34.0</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="3">
-        <v>2796.0</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B11" s="5"/>
       <c r="C11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="3">
+        <v>35</v>
+      </c>
+      <c r="D11" s="4">
+        <v>44839.0</v>
+      </c>
+      <c r="E11" s="5">
         <v>13.0</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -610,124 +721,35 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>27</v>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
-        <v>1.0</v>
+      <c r="A2" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
-        <v>1.0</v>
+      <c r="A3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
-        <v>1.0</v>
+      <c r="A4" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -745,75 +767,174 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
+    <col customWidth="1" min="1" max="1" width="21.63"/>
+    <col customWidth="1" min="2" max="2" width="23.5"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C2" s="7">
-        <v>44833.0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="3">
-      <c r="C3" s="7">
-        <v>44761.0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>30</v>
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4">
-      <c r="C4" s="7">
-        <v>44354.0</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5">
-      <c r="C5" s="7">
-        <v>44841.0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" s="7">
-        <v>44840.0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" s="7">
-        <v>44839.0</v>
-      </c>
-      <c r="D7" s="1" t="s">
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
